--- a/biology/Zoologie/Fidèle_Lassie/Fidèle_Lassie.xlsx
+++ b/biology/Zoologie/Fidèle_Lassie/Fidèle_Lassie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fid%C3%A8le_Lassie</t>
+          <t>Fidèle_Lassie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lassie, la fidèle puis Fidèle Lassie (titre original : Lassie Come Home) est un film américain réalisé par Fred M. Wilcox, sorti en 1943. 
 Il s'agit de la première adaptation du roman pour la jeunesse Lassie, chien fidèle (Lassie Come-Home) écrit en 1940 par Eric Knight.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fid%C3%A8le_Lassie</t>
+          <t>Fidèle_Lassie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par manque de moyens pour l'entretenir, les Carraclough, une famille de fermiers du Yorkshire, sont obligés de vendre leur brave chienne Lassie qui se retrouve chez le duc de Rudling, dans une autre région d'Angleterre. Mais la chienne s'enfuit et tente de retrouver le chemin de la maison...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fid%C3%A8le_Lassie</t>
+          <t>Fidèle_Lassie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Lassie Come Home
 Titre : Fidèle Lassie
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fid%C3%A8le_Lassie</t>
+          <t>Fidèle_Lassie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elizabeth Taylor : Priscilla, la petite-fille du duc de Rudling
 Roddy McDowall (VF : Bernard Gilles) : Joe Carraclough, un écolier
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fid%C3%A8le_Lassie</t>
+          <t>Fidèle_Lassie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,10 +655,12 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce film est la toute première adaptation du roman à succès d'Eric Knight. L'auteur avait été invité par les studios MGM à assister au tournage et à rencontrer les acteurs du film[1]. Eric Knight trouve la mort en 1943 dans l'écrasement d'un avion[2] militaire, avant la sortie du film. Il n'aura pas connu l'étendue du succès universel de Lassie et de ses nombreuses adaptations à venir (films, téléfilms et séries télévisées).
-La production avait à l'origine engagé un colley femelle pour le rôle de Lassie. Mais au moment de devoir effectuer une cascade, la chienne avait trop peur et n'osait pas se lancer. De ce fait, elle fut remplacée par un mâle, Pal (en), entraîné par le dresseur Rudd Weatherwax (en)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce film est la toute première adaptation du roman à succès d'Eric Knight. L'auteur avait été invité par les studios MGM à assister au tournage et à rencontrer les acteurs du film. Eric Knight trouve la mort en 1943 dans l'écrasement d'un avion militaire, avant la sortie du film. Il n'aura pas connu l'étendue du succès universel de Lassie et de ses nombreuses adaptations à venir (films, téléfilms et séries télévisées).
+La production avait à l'origine engagé un colley femelle pour le rôle de Lassie. Mais au moment de devoir effectuer une cascade, la chienne avait trop peur et n'osait pas se lancer. De ce fait, elle fut remplacée par un mâle, Pal (en), entraîné par le dresseur Rudd Weatherwax (en).
 En France, le film sort sous le titre de Lassie, la fidèle.
 Elizabeth Taylor, alors âgée de 11 ans, y joue l'un de ses tout premiers rôles au cinéma.</t>
         </is>
